--- a/professions.xlsx
+++ b/professions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="11955" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="27795" windowHeight="11895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="702">
   <si>
     <t>Бухгалтер</t>
   </si>
@@ -2122,6 +2122,9 @@
   </si>
   <si>
     <t>"glyphicons-dog"</t>
+  </si>
+  <si>
+    <t>продукты</t>
   </si>
 </sst>
 </file>
@@ -2953,7 +2956,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1132</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3001,13 +3004,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -3056,13 +3059,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3111,13 +3114,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>1166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3166,13 +3169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -3221,13 +3224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -3276,13 +3279,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>1166</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3338,7 +3341,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1133</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -3386,13 +3389,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -3441,13 +3444,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3496,13 +3499,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3551,13 +3554,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -3606,13 +3609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -3661,13 +3664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>1135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>1167</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4214,23 +4217,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="4" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" customWidth="1"/>
+    <col min="5" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>697</v>
       </c>
@@ -4240,35 +4243,38 @@
       <c r="C1" t="s">
         <v>695</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>699</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>185</v>
       </c>
@@ -4279,10 +4285,10 @@
         <v>125</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4291,31 +4297,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="54">
-        <f>SUM(D2:J2)</f>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="54">
+        <f>SUM(D2:K2)</f>
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>700</v>
       </c>
-      <c r="M2" t="str">
-        <f>"case "&amp;B2&amp;": return "&amp;L2&amp;"; break;"</f>
+      <c r="N2" t="str">
+        <f>"case "&amp;B2&amp;": return "&amp;M2&amp;"; break;"</f>
         <v>case 1: return "glyphicons-dog"; break;</v>
       </c>
-      <c r="N2" t="str">
-        <f t="shared" ref="N2:N29" si="0">"INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('"&amp;A2&amp;"',"&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;");"</f>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O29" si="0">"INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('"&amp;A2&amp;"',"&amp;C2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2&amp;","&amp;H2&amp;","&amp;I2&amp;","&amp;J2&amp;","&amp;K2&amp;");"</f>
         <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Работа с животными',125,1,0,0,0,1,0,0);</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -4329,10 +4338,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -4341,21 +4350,24 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="54">
-        <f t="shared" ref="K3:K29" si="1">SUM(D3:J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="54">
+        <f t="shared" ref="L3:L29" si="1">SUM(D3:K3)</f>
         <v>2</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Геология',200,0,1,0,0,0,1,0);</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -4378,24 +4390,27 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="54">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Дизайн и прикладное искусство',150,0,0,0,0,1,0,1);</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>151</v>
       </c>
@@ -4412,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4426,16 +4441,19 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Медицина',300,0,0,1,1,0,0,0);</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -4446,10 +4464,10 @@
         <v>125</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -4458,949 +4476,1021 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Животноводство и растениеводство',125,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>275</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N6" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Животноводство и растениеводство',125,1,0,0,0,1,0,0);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>275</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Информационные технологии (IT)',275,0,0,1,1,0,0,0);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>175</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N7" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Информационные технологии (IT)',275,0,0,1,1,0,0,0);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>535</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>175</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Театр и кино',175,1,0,0,0,0,0,1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Кулинария, пищевая промышленность',150,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N8" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Театр и кино',175,1,0,0,0,0,0,1);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Одежда',125,0,0,0,0,1,0,1);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>150</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="54">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>150</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N9" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Кулинария, пищевая промышленность',150,1,0,0,0,1,0,0);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>545</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>125</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Маркетинг, реклама и PR',150,0,0,1,1,0,0,0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N10" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Одежда',125,0,0,0,0,1,0,1);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>150</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Педагогика и психология',200,1,0,0,0,0,1,0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N11" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Маркетинг, реклама и PR',150,0,0,1,1,0,0,0);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Менеджмент (управление)',250,0,0,1,0,0,1,0);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>275</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N12" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Педагогика и психология',200,1,0,0,0,0,1,0);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>250</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Наука',275,0,0,1,1,0,0,0);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>225</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N13" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Менеджмент (управление)',250,0,0,1,0,0,1,0);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>275</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Силовые структуры',225,1,1,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N14" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Наука',275,0,0,1,1,0,0,0);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>225</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Политика',300,0,1,1,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>602</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N15" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Силовые структуры',225,1,1,0,0,0,0,0);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>300</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Философия и религия',150,0,1,0,0,0,1,0);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Сервис и туризм',100,1,0,0,0,1,0,0);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N16" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Политика',300,0,1,1,0,0,0,0);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>602</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>150</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('СМИ, издательство, полиграфия',150,0,0,0,0,0,1,1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>125</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N17" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Философия и религия',150,0,1,0,0,0,1,0);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>100</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Красота',125,0,0,0,0,1,0,1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N18" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Сервис и туризм',100,1,0,0,0,1,0,0);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Спорт',150,0,1,0,0,0,1,0);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N19" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('СМИ, издательство, полиграфия',150,0,0,0,0,0,1,1);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>633</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>125</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Строительство и архитектура',200,0,0,1,0,0,0,1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>175</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Торговля',175,0,0,0,1,0,0,1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>653</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N20" t="str">
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Красота',125,0,0,0,0,1,0,1);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>645</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>150</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Транспорт, автобизнес',150,1,1,0,0,0,0,0);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>654</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N21" t="str">
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Спорт',150,0,1,0,0,0,1,0);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>200</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Авиация',250,0,0,0,1,1,0,0);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>175</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N22" t="str">
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Строительство и архитектура',200,0,0,1,0,0,0,1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>175</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Тяжёлая промышленность',175,0,1,0,0,0,0,1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>225</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N23" t="str">
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Торговля',175,0,0,0,1,0,0,1);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>653</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>150</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="54">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Финансы, бухгалтерия',225,0,0,0,1,0,1,0);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N24" t="str">
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Транспорт, автобизнес',150,1,1,0,0,0,0,0);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>654</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
+        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Шоу-бизнес',200,0,0,1,0,0,1,0);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
         <v>250</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" s="54">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="54">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Авиация',250,0,0,0,1,1,0,0);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>175</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="54">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Тяжёлая промышленность',175,0,1,0,0,0,0,1);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>225</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27" s="54">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Финансы, бухгалтерия',225,0,0,0,1,0,1,0);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>200</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" s="54">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Шоу-бизнес',200,0,0,1,0,0,1,0);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>250</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" s="54">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N29" t="str">
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO `vocation`(`name`, `start_salary`, `wood`, `metall`, `plastic`, `microelectronics`, `cloth`, `stone`, `chemical`) VALUES ('Юриспруденция',250,0,1,0,1,0,0,0);</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="55"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D31" s="54">
-        <f t="shared" ref="D31:J31" si="2">SUM(D2:D30)</f>
+        <f t="shared" ref="D31:K31" si="2">SUM(D2:D30)</f>
         <v>8</v>
       </c>
       <c r="E31" s="54">
@@ -5424,6 +5514,10 @@
         <v>8</v>
       </c>
       <c r="J31" s="54">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K31" s="54">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5438,7 +5532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
@@ -35139,6 +35233,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B135:B145"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B29:B48"/>
+    <mergeCell ref="B49:B97"/>
+    <mergeCell ref="B98:B134"/>
     <mergeCell ref="B260:B325"/>
     <mergeCell ref="B326:B347"/>
     <mergeCell ref="B348:B401"/>
@@ -35149,12 +35249,6 @@
     <mergeCell ref="B181:B209"/>
     <mergeCell ref="B210:B212"/>
     <mergeCell ref="B213:B259"/>
-    <mergeCell ref="B135:B145"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="B29:B48"/>
-    <mergeCell ref="B49:B97"/>
-    <mergeCell ref="B98:B134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
